--- a/biology/Biologie cellulaire et moléculaire/Stroma_(cytologie)/Stroma_(cytologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Stroma_(cytologie)/Stroma_(cytologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En cytologie, le stroma est le fluide incolore qui entoure les thylakoïdes dans les chloroplastes des cellules végétales. C'est en son sein que se déroule la fixation du carbone par le cycle de Calvin de la photosynthèse ainsi que la transcription et la traduction du plastome, c'est-à-dire du matériel génétique des chloroplastes, ces derniers possédant leurs propres ribosomes.
-Le pH du stroma augmente au cours de la photosynthèse en raison du pompage des protons vers le lumen des thylakoïdes sous l'effet de la lumière[1].
+Le pH du stroma augmente au cours de la photosynthèse en raison du pompage des protons vers le lumen des thylakoïdes sous l'effet de la lumière.
 </t>
         </is>
       </c>
